--- a/src/Decathlon/Decathlon.Tests/test-data/london-2012/London-2012.xlsx
+++ b/src/Decathlon/Decathlon.Tests/test-data/london-2012/London-2012.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChrisW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chris\Code\GitHub\chris-e-watson\decathlon-elreg-comp\trunk\src\Decathlon\Decathlon.Tests\test-data\london-2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="7470" windowHeight="1260" tabRatio="371"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="7470" windowHeight="1260" tabRatio="504" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="528">
   <si>
     <r>
       <t> Sergey Sviridov </t>
@@ -1153,9 +1153,6 @@
       </rPr>
       <t>(GER)</t>
     </r>
-  </si>
-  <si>
-    <t>DNF</t>
   </si>
   <si>
     <t>11.42 s</t>
@@ -2121,21 +2118,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4295,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4348,11 +4345,11 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>8869</v>
       </c>
       <c r="D2" s="6">
@@ -4387,9 +4384,9 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
@@ -4462,11 +4459,11 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="3">
@@ -4501,9 +4498,9 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4536,11 +4533,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="3">
@@ -4575,9 +4572,9 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
@@ -4610,13 +4607,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>8447</v>
       </c>
       <c r="D8" s="3">
@@ -4651,9 +4648,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
@@ -4686,13 +4683,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="3">
@@ -4727,9 +4724,9 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4762,13 +4759,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>8320</v>
       </c>
       <c r="D12" s="3">
@@ -4803,9 +4800,9 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
         <v>78</v>
       </c>
@@ -4838,13 +4835,13 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>8283</v>
       </c>
       <c r="D14" s="3">
@@ -4879,9 +4876,9 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
@@ -4914,13 +4911,13 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>8219</v>
       </c>
       <c r="D16" s="3">
@@ -4955,9 +4952,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4990,13 +4987,13 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <v>8173</v>
       </c>
       <c r="D18" s="3">
@@ -5031,9 +5028,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>98</v>
       </c>
@@ -5066,13 +5063,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <v>8126</v>
       </c>
       <c r="D20" s="3">
@@ -5107,9 +5104,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>108</v>
       </c>
@@ -5142,13 +5139,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>11</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="15">
         <v>8034</v>
       </c>
       <c r="D22" s="3">
@@ -5183,9 +5180,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1" t="s">
         <v>118</v>
       </c>
@@ -5218,13 +5215,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>12</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="15">
         <v>7988</v>
       </c>
       <c r="D24" s="3">
@@ -5259,9 +5256,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
         <v>129</v>
       </c>
@@ -5294,13 +5291,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>13</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <v>7972</v>
       </c>
       <c r="D26" s="3">
@@ -5335,9 +5332,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
         <v>138</v>
       </c>
@@ -5370,13 +5367,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>14</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="15">
         <v>7956</v>
       </c>
       <c r="D28" s="3">
@@ -5411,9 +5408,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1" t="s">
         <v>148</v>
       </c>
@@ -5446,13 +5443,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="15">
         <v>7952</v>
       </c>
       <c r="D30" s="3">
@@ -5487,9 +5484,9 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1" t="s">
         <v>157</v>
       </c>
@@ -5522,13 +5519,13 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>16</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <v>7948</v>
       </c>
       <c r="D32" s="3">
@@ -5563,9 +5560,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1" t="s">
         <v>164</v>
       </c>
@@ -5598,13 +5595,13 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="15">
         <v>7928</v>
       </c>
       <c r="D34" s="3">
@@ -5639,9 +5636,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="1" t="s">
         <v>175</v>
       </c>
@@ -5674,13 +5671,13 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>18</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="15">
         <v>7926</v>
       </c>
       <c r="D36" s="3">
@@ -5715,9 +5712,9 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="1" t="s">
         <v>184</v>
       </c>
@@ -5750,13 +5747,13 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>19</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <v>7849</v>
       </c>
       <c r="D38" s="3">
@@ -5791,9 +5788,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
         <v>192</v>
       </c>
@@ -5819,20 +5816,20 @@
         <v>8</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>20</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="15">
         <v>7842</v>
       </c>
       <c r="D40" s="3">
@@ -5867,9 +5864,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="1" t="s">
         <v>157</v>
       </c>
@@ -5902,13 +5899,13 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>21</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="15">
         <v>7805</v>
       </c>
       <c r="D42" s="3">
@@ -5943,9 +5940,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="1" t="s">
         <v>208</v>
       </c>
@@ -5978,13 +5975,13 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>22</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="15">
         <v>7649</v>
       </c>
       <c r="D44" s="3">
@@ -6019,9 +6016,9 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="1" t="s">
         <v>217</v>
       </c>
@@ -6054,13 +6051,13 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>23</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="15">
         <v>7586</v>
       </c>
       <c r="D46" s="3">
@@ -6095,9 +6092,9 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="1" t="s">
         <v>226</v>
       </c>
@@ -6130,13 +6127,13 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>24</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="15">
         <v>7581</v>
       </c>
       <c r="D48" s="3">
@@ -6171,9 +6168,9 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="1" t="s">
         <v>236</v>
       </c>
@@ -6206,13 +6203,13 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>25</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="15">
         <v>7557</v>
       </c>
       <c r="D50" s="3">
@@ -6247,9 +6244,9 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="1" t="s">
         <v>245</v>
       </c>
@@ -6282,13 +6279,13 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>26</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="15">
         <v>7203</v>
       </c>
       <c r="D52" s="3">
@@ -6323,9 +6320,9 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="1" t="s">
         <v>254</v>
       </c>
@@ -6358,14 +6355,15 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>264</v>
+      <c r="C54" s="15">
+        <f>SUM(D54:K54)</f>
+        <v>6441</v>
       </c>
       <c r="D54" s="3">
         <v>769</v>
@@ -6391,53 +6389,54 @@
       <c r="K54" s="3">
         <v>731</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>271</v>
+      <c r="L54" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>264</v>
+      <c r="B56" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="15">
+        <f t="shared" ref="C56" si="0">SUM(D56:K56)</f>
+        <v>4142</v>
       </c>
       <c r="D56" s="3">
         <v>834</v>
@@ -6454,56 +6453,57 @@
       <c r="H56" s="3">
         <v>807</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>271</v>
+      <c r="I56" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>264</v>
+      <c r="C58" s="15">
+        <f t="shared" ref="C58" si="1">SUM(D58:K58)</f>
+        <v>3306</v>
       </c>
       <c r="D58" s="3">
         <v>883</v>
@@ -6517,57 +6517,58 @@
       <c r="G58" s="3">
         <v>767</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>271</v>
+      <c r="H58" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>264</v>
+      <c r="B60" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" ref="C60" si="2">SUM(D60:K60)</f>
+        <v>1700</v>
       </c>
       <c r="D60" s="3">
         <v>926</v>
@@ -6575,188 +6576,143 @@
       <c r="E60" s="3">
         <v>774</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>271</v>
+      <c r="F60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>264</v>
+      <c r="C62" s="15">
+        <f t="shared" ref="C62" si="3">SUM(D62:K62)</f>
+        <v>744</v>
       </c>
       <c r="D62" s="3">
         <v>744</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>271</v>
+      <c r="E62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
+        <v>283</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
@@ -6770,38 +6726,84 @@
     <mergeCell ref="K56:K57"/>
     <mergeCell ref="L56:L57"/>
     <mergeCell ref="M56:M57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" tooltip="100 metres" display="https://en.wikipedia.org/wiki/100_metres"/>
@@ -6826,7 +6828,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D28" sqref="D28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,9 +8288,9 @@
         <f>Sheet1!B54</f>
         <v> Jan Felix Knobel (GER)</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C28" s="10">
         <f>Sheet1!C54</f>
-        <v>DNF</v>
+        <v>6441</v>
       </c>
       <c r="D28" s="10" t="str">
         <f>SUBSTITUTE(Sheet1!D55, " s", "")</f>
@@ -8334,9 +8336,9 @@
         <f>Sheet1!B56</f>
         <v> Kurt Felix (GRN)</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="10">
         <f>Sheet1!C56</f>
-        <v>DNF</v>
+        <v>4142</v>
       </c>
       <c r="D29" s="10" t="str">
         <f>SUBSTITUTE(Sheet1!D57, " s", "")</f>
@@ -8373,9 +8375,9 @@
         <f>Sheet1!B58</f>
         <v> Mihail Dudaš (SRB)</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C30" s="10">
         <f>Sheet1!C58</f>
-        <v>DNF</v>
+        <v>3306</v>
       </c>
       <c r="D30" s="10" t="str">
         <f>SUBSTITUTE(Sheet1!D59, " s", "")</f>
@@ -8409,9 +8411,9 @@
         <f>Sheet1!B60</f>
         <v> Daniel Awde (GBR)</v>
       </c>
-      <c r="C31" s="10" t="str">
+      <c r="C31" s="10">
         <f>Sheet1!C60</f>
-        <v>DNF</v>
+        <v>1700</v>
       </c>
       <c r="D31" s="10" t="str">
         <f>SUBSTITUTE(Sheet1!D61, " s", "")</f>
@@ -8439,9 +8441,9 @@
         <f>Sheet1!B62</f>
         <v> Roman Šebrle (CZE)</v>
       </c>
-      <c r="C32" s="10" t="str">
+      <c r="C32" s="10">
         <f>Sheet1!C62</f>
-        <v>DNF</v>
+        <v>744</v>
       </c>
       <c r="D32" s="10" t="str">
         <f>SUBSTITUTE(Sheet1!D63, " s", "")</f>
@@ -8494,10 +8496,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,7 +8508,7 @@
         <v> Ashton Eaton (USA)</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="str">
         <f>UPPER(B2)</f>
@@ -8519,7 +8521,7 @@
         <v> Trey Hardee (USA)</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C32" si="0">UPPER(B3)</f>
@@ -8532,7 +8534,7 @@
         <v> Leonel Suárez (CUB)</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -8545,7 +8547,7 @@
         <v> Hans Van Alphen (BEL)</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -8558,7 +8560,7 @@
         <v> Damian Warner (CAN)</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -8571,7 +8573,7 @@
         <v> Rico Freimuth (GER)</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -8584,7 +8586,7 @@
         <v> Oleksiy Kasyanov (UKR)</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -8597,7 +8599,7 @@
         <v> Sergey Sviridov (RUS)</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -8610,7 +8612,7 @@
         <v> Willem Coertzen (RSA)</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -8623,7 +8625,7 @@
         <v> Pascal Behrenbruch (GER)</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -8636,7 +8638,7 @@
         <v> Eelco Sintnicolaas (NED)</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -8649,7 +8651,7 @@
         <v> Brent Newdick (NZL)</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8662,7 +8664,7 @@
         <v> Gonzalo Barroilhet (CHI)</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8675,7 +8677,7 @@
         <v> Yordanis García (CUB)</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8688,7 +8690,7 @@
         <v> Kevin Mayer (FRA)</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8701,7 +8703,7 @@
         <v> Ilya Shkurenyov (RUS)</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8714,7 +8716,7 @@
         <v> Eduard Mikhan (BLR)</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8727,7 +8729,7 @@
         <v> Dmitriy Karpov (KAZ)</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8740,7 +8742,7 @@
         <v> Luiz Alberto de Araújo (BRA)</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8753,7 +8755,7 @@
         <v> Keisuke Ushiro (JPN)</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8766,7 +8768,7 @@
         <v> Ingmar Vos (NED)</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -8779,7 +8781,7 @@
         <v> Edgars Eriņš (LAT)</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8792,7 +8794,7 @@
         <v> Jangy Addy (LBR)</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8805,7 +8807,7 @@
         <v> Attila Szabó (HUN)</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8818,7 +8820,7 @@
         <v> Darius Draudvila (LTU)</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8831,7 +8833,7 @@
         <v> Rifat Artikov (UZB)</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -8844,7 +8846,7 @@
         <v> Jan Felix Knobel (GER)</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -8857,7 +8859,7 @@
         <v> Kurt Felix (GRN)</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -8870,7 +8872,7 @@
         <v> Mihail Dudaš (SRB)</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -8883,7 +8885,7 @@
         <v> Daniel Awde (GBR)</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -8896,7 +8898,7 @@
         <v> Roman Šebrle (CZE)</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -9344,34 +9346,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10820,74 +10822,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2">
         <v>802.99999999999989</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2">
         <v>204.99999999999997</v>
       </c>
       <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" t="s">
         <v>286</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>287</v>
-      </c>
-      <c r="H2" t="s">
-        <v>288</v>
       </c>
       <c r="I2">
         <v>520</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K2">
         <v>273.59000000000003</v>
@@ -10895,34 +10897,34 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3">
         <v>753</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3">
         <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I3">
         <v>480</v>
       </c>
       <c r="J3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K3">
         <v>280.94</v>
@@ -10930,34 +10932,34 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4">
         <v>752</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4">
         <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I4">
         <v>470</v>
       </c>
       <c r="J4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K4">
         <v>270.08000000000004</v>
@@ -10965,34 +10967,34 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5">
         <v>764</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5">
         <v>204.99999999999997</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I5">
         <v>480</v>
       </c>
       <c r="J5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K5">
         <v>262.5</v>
@@ -11000,34 +11002,34 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6">
         <v>754</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6">
         <v>204.99999999999997</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I6">
         <v>470</v>
       </c>
       <c r="J6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K6">
         <v>269.84999999999997</v>
@@ -11035,34 +11037,34 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7">
         <v>721</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7">
         <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I7">
         <v>490.00000000000006</v>
       </c>
       <c r="J7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K7">
         <v>277.62</v>
@@ -11070,34 +11072,34 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8">
         <v>755</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E8">
         <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I8">
         <v>459.99999999999994</v>
       </c>
       <c r="J8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K8">
         <v>273.68</v>
@@ -11105,34 +11107,34 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9">
         <v>745</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E9">
         <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I9">
         <v>459.99999999999994</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K9">
         <v>276.63</v>
@@ -11140,34 +11142,34 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10">
         <v>717</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10">
         <v>204.99999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I10">
         <v>450</v>
       </c>
       <c r="J10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K10">
         <v>266.52000000000004</v>
@@ -11175,34 +11177,34 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11">
         <v>715</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11">
         <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I11">
         <v>470</v>
       </c>
       <c r="J11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K11">
         <v>277.45999999999998</v>
@@ -11210,34 +11212,34 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12">
         <v>737</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E12">
         <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I12">
         <v>530</v>
       </c>
       <c r="J12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K12">
         <v>271.17</v>
@@ -11245,34 +11247,34 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13">
         <v>736</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E13">
         <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I13">
         <v>470</v>
       </c>
       <c r="J13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K13">
         <v>278.2</v>
@@ -11280,34 +11282,34 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14">
         <v>680</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14">
         <v>204.99999999999997</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I14">
         <v>540</v>
       </c>
       <c r="J14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K14">
         <v>288.23</v>
@@ -11315,34 +11317,34 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C15">
         <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E15">
         <v>199</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I15">
         <v>459.99999999999994</v>
       </c>
       <c r="J15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K15">
         <v>278.57000000000005</v>
@@ -11350,34 +11352,34 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16">
         <v>717</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E16">
         <v>204.99999999999997</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I16">
         <v>470</v>
       </c>
       <c r="J16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K16">
         <v>263.02</v>
@@ -11385,34 +11387,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17">
         <v>725</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17">
         <v>202</v>
       </c>
       <c r="F17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I17">
         <v>509.99999999999994</v>
       </c>
       <c r="J17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K17">
         <v>282.79999999999995</v>
@@ -11420,34 +11422,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18">
         <v>694</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E18">
         <v>193</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I18">
         <v>440.00000000000006</v>
       </c>
       <c r="J18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K18">
         <v>278.06</v>
@@ -11455,34 +11457,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19">
         <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19">
         <v>199</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I19">
         <v>509.99999999999994</v>
       </c>
       <c r="J19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K19">
         <v>316.83</v>
@@ -11490,28 +11492,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20">
         <v>716</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20">
         <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I20">
         <v>459.99999999999994</v>
@@ -11525,34 +11527,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21">
         <v>686</v>
       </c>
       <c r="D21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21">
         <v>199</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I21">
         <v>490.00000000000006</v>
       </c>
       <c r="J21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K21">
         <v>279.33000000000004</v>
@@ -11560,34 +11562,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C22">
         <v>727</v>
       </c>
       <c r="D22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E22">
         <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I22">
         <v>450</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K22">
         <v>290.01</v>
@@ -11595,34 +11597,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <v>698</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23">
         <v>193</v>
       </c>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I23">
         <v>450</v>
       </c>
       <c r="J23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K23">
         <v>275.88</v>
@@ -11630,34 +11632,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C24">
         <v>690</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24">
         <v>193</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I24">
         <v>420</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K24">
         <v>308.14</v>
@@ -11665,34 +11667,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25">
         <v>696</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25">
         <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I25">
         <v>459.99999999999994</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K25">
         <v>293.81</v>
@@ -11700,34 +11702,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26">
         <v>712</v>
       </c>
       <c r="D26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E26">
         <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I26">
         <v>420</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K26">
         <v>303.14000000000004</v>
@@ -11735,34 +11737,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27">
         <v>641</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E27">
         <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I27">
         <v>440.00000000000006</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K27">
         <v>309.52</v>
@@ -11770,28 +11772,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28">
         <v>705</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28">
         <v>204.99999999999997</v>
       </c>
       <c r="F28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I28">
         <v>440.00000000000006</v>
@@ -11805,22 +11807,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29">
         <v>763</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E29">
         <v>204.99999999999997</v>
       </c>
       <c r="F29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -11840,16 +11842,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30">
         <v>753</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E30">
         <v>196</v>
@@ -11875,10 +11877,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31">
         <v>683</v>
@@ -11910,10 +11912,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11961,52 +11963,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -12026,33 +12028,33 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="10">
         <v>802.99999999999989</v>
@@ -12060,21 +12062,21 @@
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="10">
         <v>204.99999999999997</v>
@@ -12082,43 +12084,43 @@
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="10">
         <v>520</v>
@@ -12126,21 +12128,21 @@
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="10">
         <v>273.59000000000003</v>
@@ -12148,21 +12150,21 @@
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="10">
         <v>753</v>
@@ -12170,21 +12172,21 @@
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="10">
         <v>199</v>
@@ -12192,43 +12194,43 @@
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="10">
         <v>480</v>
@@ -12236,21 +12238,21 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="10">
         <v>280.94</v>
@@ -12258,21 +12260,21 @@
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C23" s="10">
         <v>752</v>
@@ -12280,21 +12282,21 @@
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="10">
         <v>211</v>
@@ -12302,43 +12304,43 @@
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="10">
         <v>470</v>
@@ -12346,21 +12348,21 @@
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="10">
         <v>270.08000000000004</v>
@@ -12368,21 +12370,21 @@
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="10">
         <v>764</v>
@@ -12390,21 +12392,21 @@
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" s="10">
         <v>204.99999999999997</v>
@@ -12412,43 +12414,43 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="10">
         <v>480</v>
@@ -12456,21 +12458,21 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" s="10">
         <v>262.5</v>
@@ -12478,21 +12480,21 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C43" s="10">
         <v>754</v>
@@ -12500,21 +12502,21 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="10">
         <v>204.99999999999997</v>
@@ -12522,43 +12524,43 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C49" s="10">
         <v>470</v>
@@ -12566,21 +12568,21 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C51" s="10">
         <v>269.84999999999997</v>
@@ -12588,21 +12590,21 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C53" s="10">
         <v>721</v>
@@ -12610,21 +12612,21 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C55" s="10">
         <v>190</v>
@@ -12632,43 +12634,43 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C59" s="10">
         <v>490.00000000000006</v>
@@ -12676,21 +12678,21 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C61" s="10">
         <v>277.62</v>
@@ -12698,21 +12700,21 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="10">
         <v>755</v>
@@ -12720,21 +12722,21 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" s="10">
         <v>199</v>
@@ -12742,43 +12744,43 @@
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C69" s="10">
         <v>459.99999999999994</v>
@@ -12786,21 +12788,21 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C71" s="10">
         <v>273.68</v>
@@ -12808,21 +12810,21 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C73" s="10">
         <v>745</v>
@@ -12830,21 +12832,21 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C75" s="10">
         <v>199</v>
@@ -12852,43 +12854,43 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="10">
         <v>459.99999999999994</v>
@@ -12896,21 +12898,21 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81" s="10">
         <v>276.63</v>
@@ -12918,21 +12920,21 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C83" s="10">
         <v>717</v>
@@ -12940,21 +12942,21 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C85" s="10">
         <v>204.99999999999997</v>
@@ -12962,43 +12964,43 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C89" s="10">
         <v>450</v>
@@ -13006,21 +13008,21 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C91" s="10">
         <v>266.52000000000004</v>
@@ -13028,21 +13030,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C93" s="10">
         <v>715</v>
@@ -13050,21 +13052,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C95" s="10">
         <v>196</v>
@@ -13072,43 +13074,43 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C99" s="10">
         <v>470</v>
@@ -13116,21 +13118,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C101" s="10">
         <v>277.45999999999998</v>
@@ -13138,21 +13140,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C103" s="10">
         <v>737</v>
@@ -13160,21 +13162,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C105" s="10">
         <v>193</v>
@@ -13182,43 +13184,43 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C109" s="10">
         <v>530</v>
@@ -13226,21 +13228,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C111" s="10">
         <v>271.17</v>
@@ -13248,21 +13250,21 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C113" s="10">
         <v>736</v>
@@ -13270,21 +13272,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C115" s="10">
         <v>196</v>
@@ -13292,43 +13294,43 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C119" s="10">
         <v>470</v>
@@ -13336,21 +13338,21 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C121" s="10">
         <v>278.2</v>
@@ -13358,21 +13360,21 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C123" s="10">
         <v>680</v>
@@ -13380,21 +13382,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C125" s="10">
         <v>204.99999999999997</v>
@@ -13402,43 +13404,43 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C129" s="10">
         <v>540</v>
@@ -13446,21 +13448,21 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C131" s="10">
         <v>288.23</v>
@@ -13468,21 +13470,21 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C133" s="10">
         <v>675</v>
@@ -13490,21 +13492,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C135" s="10">
         <v>199</v>
@@ -13512,43 +13514,43 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C139" s="10">
         <v>459.99999999999994</v>
@@ -13556,21 +13558,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C141" s="10">
         <v>278.57000000000005</v>
@@ -13578,21 +13580,21 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C143" s="10">
         <v>717</v>
@@ -13600,21 +13602,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C145" s="10">
         <v>204.99999999999997</v>
@@ -13622,43 +13624,43 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C149" s="10">
         <v>470</v>
@@ -13666,21 +13668,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C151" s="10">
         <v>263.02</v>
@@ -13688,21 +13690,21 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C153" s="10">
         <v>725</v>
@@ -13710,21 +13712,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C155" s="10">
         <v>202</v>
@@ -13732,43 +13734,43 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C159" s="10">
         <v>509.99999999999994</v>
@@ -13776,21 +13778,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C161" s="10">
         <v>282.79999999999995</v>
@@ -13798,21 +13800,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C163" s="10">
         <v>694</v>
@@ -13820,21 +13822,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C165" s="10">
         <v>193</v>
@@ -13842,43 +13844,43 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C169" s="10">
         <v>440.00000000000006</v>
@@ -13886,21 +13888,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C171" s="10">
         <v>278.06</v>
@@ -13908,21 +13910,21 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C173" s="10">
         <v>721</v>
@@ -13930,21 +13932,21 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B175" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C175" s="10">
         <v>199</v>
@@ -13952,43 +13954,43 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C179" s="10">
         <v>509.99999999999994</v>
@@ -13996,21 +13998,21 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B181" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C181" s="10">
         <v>316.83</v>
@@ -14018,21 +14020,21 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B182" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B183" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C183" s="10">
         <v>716</v>
@@ -14040,21 +14042,21 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B184" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B185" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C185" s="10">
         <v>193</v>
@@ -14062,43 +14064,43 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B187" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C189" s="10">
         <v>459.99999999999994</v>
@@ -14106,10 +14108,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C190" s="10">
         <v>51.59</v>
@@ -14117,10 +14119,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C191" s="10">
         <v>278.04000000000002</v>
@@ -14128,21 +14130,21 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B192" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C193" s="10">
         <v>686</v>
@@ -14150,21 +14152,21 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B195" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C195" s="10">
         <v>199</v>
@@ -14172,43 +14174,43 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B196" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C199" s="10">
         <v>490.00000000000006</v>
@@ -14216,21 +14218,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C201" s="10">
         <v>279.33000000000004</v>
@@ -14238,21 +14240,21 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B203" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="10">
         <v>727</v>
@@ -14260,21 +14262,21 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B204" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="10">
         <v>196</v>
@@ -14282,43 +14284,43 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B207" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" s="10">
         <v>450</v>
@@ -14326,21 +14328,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" s="10">
         <v>290.01</v>
@@ -14348,21 +14350,21 @@
     </row>
     <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C213" s="10">
         <v>698</v>
@@ -14370,21 +14372,21 @@
     </row>
     <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B215" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C215" s="10">
         <v>193</v>
@@ -14392,43 +14394,43 @@
     </row>
     <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B216" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B217" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B219" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C219" s="10">
         <v>450</v>
@@ -14436,21 +14438,21 @@
     </row>
     <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B220" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C221" s="10">
         <v>275.88</v>
@@ -14458,21 +14460,21 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C223" s="10">
         <v>690</v>
@@ -14480,21 +14482,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B224" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B225" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C225" s="10">
         <v>193</v>
@@ -14502,43 +14504,43 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B226" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B227" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B228" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C229" s="10">
         <v>420</v>
@@ -14546,21 +14548,21 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B231" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C231" s="10">
         <v>308.14</v>
@@ -14568,21 +14570,21 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B232" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C233" s="10">
         <v>696</v>
@@ -14590,21 +14592,21 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B235" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C235" s="10">
         <v>190</v>
@@ -14612,43 +14614,43 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B236" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C239" s="10">
         <v>459.99999999999994</v>
@@ -14656,21 +14658,21 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B240" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C241" s="10">
         <v>293.81</v>
@@ -14678,21 +14680,21 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B242" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B243" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C243" s="10">
         <v>712</v>
@@ -14700,21 +14702,21 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B245" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C245" s="10">
         <v>196</v>
@@ -14722,43 +14724,43 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B246" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B248" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B249" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C249" s="10">
         <v>420</v>
@@ -14766,21 +14768,21 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B250" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B251" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C251" s="10">
         <v>303.14000000000004</v>
@@ -14788,21 +14790,21 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B252" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C253" s="10">
         <v>641</v>
@@ -14810,21 +14812,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B254" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B255" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C255" s="10">
         <v>193</v>
@@ -14832,43 +14834,43 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B256" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B257" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B258" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B259" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C259" s="10">
         <v>440.00000000000006</v>
@@ -14876,21 +14878,21 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B261" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C261" s="10">
         <v>309.52</v>
@@ -14898,21 +14900,21 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B262" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B263" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C263" s="10">
         <v>705</v>
@@ -14920,21 +14922,21 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B264" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B265" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C265" s="10">
         <v>204.99999999999997</v>
@@ -14942,43 +14944,43 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B266" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B267" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B268" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B269" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C269" s="10">
         <v>440.00000000000006</v>
@@ -14986,10 +14988,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B270" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C270" s="10">
         <v>0</v>
@@ -14997,10 +14999,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C271" s="10">
         <v>0</v>
@@ -15008,21 +15010,21 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B272" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C273" s="10">
         <v>763</v>
@@ -15030,21 +15032,21 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B274" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B275" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C275" s="10">
         <v>204.99999999999997</v>
@@ -15052,21 +15054,21 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B276" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C277" s="10">
         <v>0</v>
@@ -15074,10 +15076,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B278" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C278" s="10">
         <v>0</v>
@@ -15085,10 +15087,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B279" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C279" s="10">
         <v>0</v>
@@ -15096,10 +15098,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C280" s="10">
         <v>0</v>
@@ -15107,10 +15109,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C281" s="10">
         <v>0</v>
@@ -15118,21 +15120,21 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C283" s="10">
         <v>753</v>
@@ -15140,21 +15142,21 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C285" s="10">
         <v>196</v>
@@ -15162,10 +15164,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C286" s="10">
         <v>0</v>
@@ -15173,10 +15175,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C287" s="10">
         <v>0</v>
@@ -15184,10 +15186,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C288" s="10">
         <v>0</v>
@@ -15195,10 +15197,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C289" s="10">
         <v>0</v>
@@ -15206,10 +15208,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C290" s="10">
         <v>0</v>
@@ -15217,10 +15219,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C291" s="10">
         <v>0</v>
@@ -15228,21 +15230,21 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C293" s="10">
         <v>683</v>
@@ -15250,10 +15252,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" s="10">
         <v>0</v>
@@ -15261,10 +15263,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C295" s="10">
         <v>0</v>
@@ -15272,10 +15274,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C296" s="10">
         <v>0</v>
@@ -15283,10 +15285,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C297" s="10">
         <v>0</v>
@@ -15294,10 +15296,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C298" s="10">
         <v>0</v>
@@ -15305,10 +15307,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C299" s="10">
         <v>0</v>
@@ -15316,10 +15318,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C300" s="10">
         <v>0</v>
@@ -15327,10 +15329,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C301" s="10">
         <v>0</v>
@@ -15338,21 +15340,21 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B302" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B303" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C303" s="10">
         <v>0</v>
@@ -15360,10 +15362,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B304" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C304" s="10">
         <v>0</v>
@@ -15371,10 +15373,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B305" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C305" s="10">
         <v>0</v>
@@ -15382,10 +15384,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B306" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C306" s="10">
         <v>0</v>
@@ -15393,10 +15395,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B307" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="10">
         <v>0</v>
@@ -15404,10 +15406,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B308" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C308" s="10">
         <v>0</v>
@@ -15415,10 +15417,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B309" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C309" s="10">
         <v>0</v>
@@ -15426,10 +15428,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B310" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="10">
         <v>0</v>
@@ -15437,10 +15439,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B311" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C311" s="10">
         <v>0</v>
@@ -15485,8 +15487,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="A9:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15496,16 +15498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>527</v>
+      <c r="A1" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="10">
         <v>8869</v>
@@ -15513,23 +15515,23 @@
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5" s="10">
         <v>8447</v>
@@ -15537,15 +15539,15 @@
     </row>
     <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B7" s="10">
         <v>8320</v>
@@ -15553,7 +15555,7 @@
     </row>
     <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B8" s="10">
         <v>8283</v>
@@ -15561,7 +15563,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B9" s="10">
         <v>8219</v>
@@ -15569,7 +15571,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B10" s="10">
         <v>8173</v>
@@ -15577,7 +15579,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B11" s="10">
         <v>8126</v>
@@ -15585,7 +15587,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" s="10">
         <v>8034</v>
@@ -15593,7 +15595,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B13" s="10">
         <v>7988</v>
@@ -15601,7 +15603,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B14" s="10">
         <v>7972</v>
@@ -15609,7 +15611,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B15" s="10">
         <v>7956</v>
@@ -15617,7 +15619,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" s="10">
         <v>7952</v>
@@ -15625,7 +15627,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B17" s="10">
         <v>7948</v>
@@ -15633,7 +15635,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18" s="10">
         <v>7928</v>
@@ -15641,7 +15643,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B19" s="10">
         <v>7926</v>
@@ -15649,7 +15651,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B20" s="10">
         <v>7849</v>
@@ -15657,7 +15659,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B21" s="10">
         <v>7842</v>
@@ -15665,7 +15667,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B22" s="10">
         <v>7805</v>
@@ -15673,7 +15675,7 @@
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B23" s="10">
         <v>7649</v>
@@ -15681,7 +15683,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B24" s="10">
         <v>7586</v>
@@ -15689,7 +15691,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B25" s="10">
         <v>7581</v>
@@ -15697,7 +15699,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B26" s="10">
         <v>7557</v>
@@ -15705,7 +15707,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B27" s="10">
         <v>7203</v>
@@ -15713,42 +15715,42 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>522</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>264</v>
+        <v>521</v>
+      </c>
+      <c r="B28" s="10">
+        <v>6441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>523</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>264</v>
+        <v>522</v>
+      </c>
+      <c r="B29" s="10">
+        <v>4142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>524</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>264</v>
+        <v>523</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3306</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>264</v>
+        <v>524</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1700</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>264</v>
+        <v>525</v>
+      </c>
+      <c r="B32" s="10">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
